--- a/编码进度表——陈绍基组.xlsx
+++ b/编码进度表——陈绍基组.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="李星" sheetId="12" r:id="rId1"/>
@@ -2015,8 +2015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2151,7 +2151,7 @@
         <v>43641</v>
       </c>
       <c r="F6" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>10</v>
@@ -2259,7 +2259,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>

--- a/编码进度表——陈绍基组.xlsx
+++ b/编码进度表——陈绍基组.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="李星" sheetId="12" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="38">
   <si>
     <t>整体模块</t>
   </si>
@@ -175,10 +175,6 @@
   </si>
   <si>
     <t xml:space="preserve">建立数据库，并且把登录完成   </t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/6/</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
@@ -1652,7 +1648,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H3" s="15" t="s">
         <v>14</v>
@@ -1797,8 +1793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1862,15 +1858,17 @@
       <c r="C3" s="8">
         <v>43640</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="8"/>
+      <c r="D3" s="8">
+        <v>43640</v>
+      </c>
+      <c r="E3" s="8">
+        <v>43640</v>
+      </c>
       <c r="F3" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H3" s="15" t="s">
         <v>14</v>
@@ -1885,9 +1883,11 @@
         <v>43640</v>
       </c>
       <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
+      <c r="E4" s="8">
+        <v>43641</v>
+      </c>
       <c r="F4" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>10</v>
@@ -2015,8 +2015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2144,17 +2144,17 @@
       <c r="C6" s="14">
         <v>43641</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>37</v>
+      <c r="D6" s="8">
+        <v>43641</v>
       </c>
       <c r="E6" s="8">
         <v>43641</v>
       </c>
       <c r="F6" s="9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H6" s="15" t="s">
         <v>35</v>
